--- a/Cadastro Representantes/Modelo Inserir Representantes.xlsx
+++ b/Cadastro Representantes/Modelo Inserir Representantes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>NOME</t>
   </si>
@@ -22,41 +22,29 @@
     <t>REPRESENTANTE</t>
   </si>
   <si>
-    <t>LUIZ CARLOS ALVES CUNHA</t>
+    <t>GUSTAVO ROSAS BOTEON</t>
   </si>
   <si>
-    <t>REGINALDO PEREIRA DA SILVA</t>
+    <t>elian.subires</t>
   </si>
   <si>
-    <t>ANTONIA CELIA OLIVEIRA PEREIRA</t>
+    <t>GUSTAO ROSAS BOTEON</t>
   </si>
   <si>
-    <t>LUCIANO DE MOURA LOPES</t>
-  </si>
-  <si>
-    <t>WAGNER ALVES TEIXEIRA</t>
-  </si>
-  <si>
-    <t>shayane.prestes</t>
+    <t>eliana.subires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -87,7 +75,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,31 +103,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B22" totalsRowShown="0">
-  <autoFilter ref="A1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="NOME"/>
     <tableColumn id="2" name="REPRESENTANTE"/>
@@ -458,7 +430,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,10 +440,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
@@ -480,11 +452,11 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -492,11 +464,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -504,11 +476,11 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -516,11 +488,11 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -528,11 +500,11 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -540,7 +512,6 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>

--- a/Cadastro Representantes/Modelo Inserir Representantes.xlsx
+++ b/Cadastro Representantes/Modelo Inserir Representantes.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>NOME</t>
   </si>
@@ -22,16 +22,13 @@
     <t>REPRESENTANTE</t>
   </si>
   <si>
-    <t>GUSTAVO ROSAS BOTEON</t>
+    <t xml:space="preserve">NILTON LASMAR JUNIOR </t>
   </si>
   <si>
-    <t>elian.subires</t>
+    <t>TWORSLEY OLIVEIRA CARDOSO</t>
   </si>
   <si>
-    <t>GUSTAO ROSAS BOTEON</t>
-  </si>
-  <si>
-    <t>eliana.subires</t>
+    <t>jennifer.assuncao</t>
   </si>
 </sst>
 </file>
@@ -107,11 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,11 +452,11 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -464,11 +464,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -476,36 +476,21 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
